--- a/PLANTILLA-INGENIEROS.xlsx
+++ b/PLANTILLA-INGENIEROS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
   <si>
     <t>Seccional</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Correo Electrónico</t>
   </si>
   <si>
-    <t>@cendoj.ramajudicial.gov.co</t>
-  </si>
-  <si>
     <t>Armenia</t>
   </si>
   <si>
@@ -273,6 +270,399 @@
   </si>
   <si>
     <t>Fredery Humberto Ramos</t>
+  </si>
+  <si>
+    <t>(6) 7410715 - 74114713</t>
+  </si>
+  <si>
+    <t>3112030839 - (5) 3449525</t>
+  </si>
+  <si>
+    <t>3174896899 - (7) 6422095 Ext. 1500, 01, 02, 03</t>
+  </si>
+  <si>
+    <t>3113262612 - (2) 8986868 Ext. 1502</t>
+  </si>
+  <si>
+    <t>3166234084 - (5) 6645508 - 6643524</t>
+  </si>
+  <si>
+    <t>3143657379 - (7) 5755302</t>
+  </si>
+  <si>
+    <t>3013909931 - (8) 2619747</t>
+  </si>
+  <si>
+    <t>3113289917 - (6) 8849639</t>
+  </si>
+  <si>
+    <t>3002986557 - 2328525 Ext, 1123-1114 - 2327374</t>
+  </si>
+  <si>
+    <t>312 -8751759 - (4)6711761</t>
+  </si>
+  <si>
+    <t>3176432728- (8)8710361 Ext. 128</t>
+  </si>
+  <si>
+    <t>3142187809 - (8) 4353592</t>
+  </si>
+  <si>
+    <t>3207856543 - (2)7293194 - 7293144</t>
+  </si>
+  <si>
+    <t>3006710340- (6) 3147683</t>
+  </si>
+  <si>
+    <t>3135860550 - (2)8240000 Ext. 122 - 129</t>
+  </si>
+  <si>
+    <t>3004257928- (5) 7270565 Ext. 101</t>
+  </si>
+  <si>
+    <t>3153820526- (5)4211580</t>
+  </si>
+  <si>
+    <t>3017189574- 2754780 Ext. 1200</t>
+  </si>
+  <si>
+    <t>3164728748- 7428851</t>
+  </si>
+  <si>
+    <t>3232901680- (5)5803226</t>
+  </si>
+  <si>
+    <t>3208163028- (8)6701040 Ext.108</t>
+  </si>
+  <si>
+    <t>4233390 Ext. 8803</t>
+  </si>
+  <si>
+    <t>3008858536- 4280318- 3024342564</t>
+  </si>
+  <si>
+    <t>3125593215 - 3532666 Ext. 6086</t>
+  </si>
+  <si>
+    <t>3003795087-5554019</t>
+  </si>
+  <si>
+    <t>5622000 Ext.1457</t>
+  </si>
+  <si>
+    <t>5658500 Ext. 2401</t>
+  </si>
+  <si>
+    <t>3506200 Ext. 3011</t>
+  </si>
+  <si>
+    <t>3506700 Ext. 4203</t>
+  </si>
+  <si>
+    <t>3004677417- 3107851980- 0385126114</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7037- 3107286878</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7011</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7012 - 3125442648</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7249</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7033 - 3102316220</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7196- 3157698365</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7017</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7013- 3107662741</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7020- 3017526999</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7035- 3114681277</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7029- 3143387704</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7107- 3122970410</t>
+  </si>
+  <si>
+    <t>3127011 Ext. 7024- 3174035508</t>
+  </si>
+  <si>
+    <t>3148731269</t>
+  </si>
+  <si>
+    <t>3148731264</t>
+  </si>
+  <si>
+    <t>3148731261</t>
+  </si>
+  <si>
+    <t>3148731258</t>
+  </si>
+  <si>
+    <t>3148731254</t>
+  </si>
+  <si>
+    <t>3148733792</t>
+  </si>
+  <si>
+    <t>3148733826</t>
+  </si>
+  <si>
+    <t>3148730030</t>
+  </si>
+  <si>
+    <t>3148729987</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3148733795</t>
+  </si>
+  <si>
+    <t>3148733793</t>
+  </si>
+  <si>
+    <t>3148779405</t>
+  </si>
+  <si>
+    <t>3148731270</t>
+  </si>
+  <si>
+    <t>3148731278</t>
+  </si>
+  <si>
+    <t>3148779396</t>
+  </si>
+  <si>
+    <t>3148780668</t>
+  </si>
+  <si>
+    <t>3148781919</t>
+  </si>
+  <si>
+    <t>3148780664</t>
+  </si>
+  <si>
+    <t>3148731309</t>
+  </si>
+  <si>
+    <t>3148774298</t>
+  </si>
+  <si>
+    <t>3148779366</t>
+  </si>
+  <si>
+    <t>3148733827</t>
+  </si>
+  <si>
+    <t>3148731282</t>
+  </si>
+  <si>
+    <t>3148731312</t>
+  </si>
+  <si>
+    <t>3148731283</t>
+  </si>
+  <si>
+    <t>3148731313</t>
+  </si>
+  <si>
+    <t>3148733808</t>
+  </si>
+  <si>
+    <t>3148733830</t>
+  </si>
+  <si>
+    <t>3148733832</t>
+  </si>
+  <si>
+    <t>3148733834</t>
+  </si>
+  <si>
+    <t>3148779380</t>
+  </si>
+  <si>
+    <t>3148732561</t>
+  </si>
+  <si>
+    <t>3148733824</t>
+  </si>
+  <si>
+    <t>3148732565</t>
+  </si>
+  <si>
+    <t>3148733810</t>
+  </si>
+  <si>
+    <t>3148739537</t>
+  </si>
+  <si>
+    <t>3148733835</t>
+  </si>
+  <si>
+    <t>3148732541</t>
+  </si>
+  <si>
+    <t>3148733836</t>
+  </si>
+  <si>
+    <t>3148732551</t>
+  </si>
+  <si>
+    <t>3148732557</t>
+  </si>
+  <si>
+    <t>3148779912</t>
+  </si>
+  <si>
+    <t>almorenor@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>asotoc@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>jsarmier@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>mfernandp@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>lgomezr@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>lrojasn@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>amontena@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>coorsistemasmzl@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>sgiraldr@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>jmolinac@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>gsanchep@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>mmunozc@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>ggomezr@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>coorsistemaspso@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>cchavarc@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>jguevarc@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>jjimeneq@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>dortegal@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>fbrunm@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>coorsistemastun@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>acoroneb@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>amorenor@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>sistemastsbta@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>nsepulvg@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>coorsistemasbta@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>wflorezc@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>tsisofiapoyoajadmbta@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>asenethq@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>pmoncadas@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>isaacs@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>hbaquerb@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>mfernandm@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>aartetar@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>msarriav@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>jpachonb @cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>csantamr@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>pcorredb@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>yantolis@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>mvargasg@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>hsalazac@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>mdelahoz@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>wcruzf@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>oruiz@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>tyurgaqz@cendoj.ramajudicial.gov.co</t>
+  </si>
+  <si>
+    <t>framozg@cendoj.ramajudicial.gov.co</t>
   </si>
 </sst>
 </file>
@@ -354,15 +744,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,22 +1038,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,347 +1069,794 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="7">
+        <v>3135086747</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C19" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3134240266</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C31" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C32" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
     </row>
   </sheetData>
